--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873462.9463280638</v>
+        <v>-876014.4969819109</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>280.6021534060256</v>
       </c>
       <c r="G2" t="n">
-        <v>134.4591723323772</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
-        <v>294.7321536188797</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>42.04518470759564</v>
@@ -710,19 +710,19 @@
         <v>109.464536558263</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>150.0892456500236</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>21.93374917958835</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>239.7920012470018</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>54.87175400786827</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>24.37744327566479</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>1.799239849288661</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>132.108345189527</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>137.9038626268942</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>53.19920540693415</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>141.8882755393101</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>39.83255574579544</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>93.0791635910544</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>211.2284830686704</v>
+        <v>151.0429659719018</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>88.27810958517587</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>179.4878555873329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>284.6097219897201</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>167.792624418075</v>
+        <v>82.52140782073253</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176064</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>152.4905881546154</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>113.502833441856</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>108.9065924712587</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.885256703864</v>
+        <v>161.8852567038639</v>
       </c>
       <c r="C34" t="n">
         <v>149.3000976205545</v>
       </c>
       <c r="D34" t="n">
-        <v>130.6687495401391</v>
+        <v>130.668749540139</v>
       </c>
       <c r="E34" t="n">
-        <v>128.4872391684959</v>
+        <v>25.81458356837474</v>
       </c>
       <c r="F34" t="n">
-        <v>24.8016689447359</v>
+        <v>127.4743245448579</v>
       </c>
       <c r="G34" t="n">
         <v>147.5774148141955</v>
@@ -3205,7 +3205,7 @@
         <v>122.3479893681506</v>
       </c>
       <c r="I34" t="n">
-        <v>63.31911284049222</v>
+        <v>63.3191128404922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>163.0795625235713</v>
+        <v>163.0795625235712</v>
       </c>
       <c r="T34" t="n">
-        <v>199.458726849215</v>
+        <v>199.4587268492149</v>
       </c>
       <c r="U34" t="n">
         <v>268.2377509111708</v>
       </c>
       <c r="V34" t="n">
-        <v>234.1909198457547</v>
+        <v>234.1909198457546</v>
       </c>
       <c r="W34" t="n">
-        <v>268.5762748585177</v>
+        <v>268.5762748585176</v>
       </c>
       <c r="X34" t="n">
-        <v>207.7629319109639</v>
+        <v>207.7629319109638</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.6379298740215</v>
+        <v>200.6379298740214</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308908</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265244</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808257</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.252252957104</v>
+        <v>1920.223510574032</v>
       </c>
       <c r="C2" t="n">
-        <v>1697.252252957104</v>
+        <v>1551.26099363362</v>
       </c>
       <c r="D2" t="n">
-        <v>1338.986554350353</v>
+        <v>1192.99529502687</v>
       </c>
       <c r="E2" t="n">
-        <v>953.1983017521093</v>
+        <v>807.2070424286258</v>
       </c>
       <c r="F2" t="n">
-        <v>542.2123969625018</v>
+        <v>523.7705238366805</v>
       </c>
       <c r="G2" t="n">
-        <v>406.3950511722217</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H2" t="n">
         <v>108.6858050925453</v>
@@ -4328,52 +4328,52 @@
         <v>66.21592154951941</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369595</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K2" t="n">
-        <v>586.364312131902</v>
+        <v>586.3643121319019</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900981</v>
+        <v>1035.50097790098</v>
       </c>
       <c r="M2" t="n">
-        <v>1566.921495383895</v>
+        <v>1566.921495383894</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.55476080156</v>
+        <v>2111.554760801559</v>
       </c>
       <c r="O2" t="n">
         <v>2612.501248106872</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356407</v>
+        <v>3005.546484356406</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.53434141264</v>
+        <v>3252.534341412639</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475971</v>
+        <v>3310.79607747597</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.225838528231</v>
+        <v>3200.22583852823</v>
       </c>
       <c r="T2" t="n">
-        <v>3200.225838528231</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="U2" t="n">
-        <v>3200.225838528231</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="V2" t="n">
-        <v>3200.225838528231</v>
+        <v>2663.131497819958</v>
       </c>
       <c r="W2" t="n">
-        <v>2847.457183258117</v>
+        <v>2310.362842549844</v>
       </c>
       <c r="X2" t="n">
-        <v>2473.991424997037</v>
+        <v>2310.362842549844</v>
       </c>
       <c r="Y2" t="n">
-        <v>2083.852093021225</v>
+        <v>1920.223510574032</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>302.156148393341</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7864839520666</v>
+        <v>165.7864839520669</v>
       </c>
       <c r="H3" t="n">
-        <v>75.22119252365748</v>
+        <v>75.22119252365769</v>
       </c>
       <c r="I3" t="n">
-        <v>66.21592154951942</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J3" t="n">
-        <v>159.2853526912741</v>
+        <v>159.285352691274</v>
       </c>
       <c r="K3" t="n">
         <v>396.510659118347</v>
       </c>
       <c r="L3" t="n">
-        <v>761.8119001858311</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M3" t="n">
         <v>1207.458086537445</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1605.477454546183</v>
+        <v>533.1818374721549</v>
       </c>
       <c r="C4" t="n">
-        <v>1605.477454546183</v>
+        <v>364.2456545442481</v>
       </c>
       <c r="D4" t="n">
-        <v>1455.360815133847</v>
+        <v>214.1290151319124</v>
       </c>
       <c r="E4" t="n">
-        <v>1455.360815133847</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="F4" t="n">
-        <v>1455.360815133847</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="G4" t="n">
-        <v>1455.360815133847</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="H4" t="n">
-        <v>1455.360815133847</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="I4" t="n">
-        <v>1455.360815133847</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J4" t="n">
-        <v>1500.102109334507</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K4" t="n">
-        <v>1703.462636402271</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L4" t="n">
-        <v>2019.220531073012</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M4" t="n">
-        <v>2362.532081574124</v>
+        <v>973.3871879897965</v>
       </c>
       <c r="N4" t="n">
-        <v>2703.115067165219</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O4" t="n">
-        <v>3001.682283797719</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P4" t="n">
-        <v>3233.637434478459</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q4" t="n">
-        <v>3310.796077475971</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R4" t="n">
-        <v>3220.718173349747</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S4" t="n">
-        <v>3069.112874713359</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="T4" t="n">
-        <v>3069.112874713359</v>
+        <v>1707.71409058679</v>
       </c>
       <c r="U4" t="n">
-        <v>2780.009707660818</v>
+        <v>1707.71409058679</v>
       </c>
       <c r="V4" t="n">
-        <v>2525.32521945493</v>
+        <v>1453.029602380903</v>
       </c>
       <c r="W4" t="n">
-        <v>2235.90804941797</v>
+        <v>1163.612432343942</v>
       </c>
       <c r="X4" t="n">
-        <v>2007.918498519952</v>
+        <v>935.6228814459248</v>
       </c>
       <c r="Y4" t="n">
-        <v>1787.125919376422</v>
+        <v>714.8303023023947</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3159.889138986905</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2828.826251643334</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.9252167254034</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9890337974965</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>311.8723943851608</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>311.8723943851608</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
         <v>310.0549803959803</v>
@@ -4720,19 +4720,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>812.5736815556431</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.5736815556431</v>
+        <v>948.5345238929555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1312.873537264416</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>954.6078386576651</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>954.6078386576651</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3076.018322200008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2744.955434856437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
         <v>310.0549803959803</v>
@@ -4957,19 +4957,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.041635554732</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1302.938768680375</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.254280474488</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W10" t="n">
-        <v>758.8371104375277</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X10" t="n">
-        <v>530.8475595395104</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>958.6693611488557</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311992</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032923</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909565</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085634</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8360202106531</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5200,7 +5200,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614389</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614389</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.700441377799</v>
+        <v>2044.493892990697</v>
       </c>
       <c r="U16" t="n">
-        <v>1694.625214721997</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.94072651611</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.523556479149</v>
+        <v>1211.317008092047</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.523556479149</v>
+        <v>983.3274571940294</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504993</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.686454602136</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1437.269284565176</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1400.559342807164</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>951.7772127656161</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>633.4413279836774</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>464.5051450557705</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038338</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1807.973581098312</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1553.289092892425</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1263.871922855465</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.882371957447</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>815.0897928139171</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>550.6376870732869</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1279.328525141786</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622258</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832662</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.84215317686</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892465</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.0613825396524</v>
+        <v>868.0613825396532</v>
       </c>
       <c r="C34" t="n">
-        <v>717.2532031249508</v>
+        <v>717.2532031249516</v>
       </c>
       <c r="D34" t="n">
-        <v>585.2645672258204</v>
+        <v>585.2645672258213</v>
       </c>
       <c r="E34" t="n">
-        <v>455.4794771566326</v>
+        <v>559.189230288069</v>
       </c>
       <c r="F34" t="n">
-        <v>430.4272863033642</v>
+        <v>430.427286303364</v>
       </c>
       <c r="G34" t="n">
         <v>281.3591905314494</v>
@@ -6859,49 +6859,49 @@
         <v>191.8199377215883</v>
       </c>
       <c r="K34" t="n">
-        <v>471.2764564904193</v>
+        <v>471.2764564904197</v>
       </c>
       <c r="L34" t="n">
-        <v>879.442306909652</v>
+        <v>879.4423069096524</v>
       </c>
       <c r="M34" t="n">
-        <v>1319.219265883979</v>
+        <v>1319.21926588398</v>
       </c>
       <c r="N34" t="n">
-        <v>1754.39639378728</v>
+        <v>1754.396393787281</v>
       </c>
       <c r="O34" t="n">
-        <v>2141.692930739558</v>
+        <v>2141.692930739559</v>
       </c>
       <c r="P34" t="n">
-        <v>2452.135642556409</v>
+        <v>2452.13564255641</v>
       </c>
       <c r="Q34" t="n">
-        <v>2589.101133526601</v>
+        <v>2589.101133526602</v>
       </c>
       <c r="R34" t="n">
-        <v>2589.101133526601</v>
+        <v>2589.101133526602</v>
       </c>
       <c r="S34" t="n">
         <v>2424.374302694711</v>
       </c>
       <c r="T34" t="n">
-        <v>2222.900841230857</v>
+        <v>2222.900841230858</v>
       </c>
       <c r="U34" t="n">
-        <v>1951.95361808826</v>
+        <v>1951.953618088261</v>
       </c>
       <c r="V34" t="n">
         <v>1715.397133395579</v>
       </c>
       <c r="W34" t="n">
-        <v>1444.107966871823</v>
+        <v>1444.107966871824</v>
       </c>
       <c r="X34" t="n">
         <v>1234.246419487012</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.581843856687</v>
+        <v>1031.581843856688</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,13 +7193,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345464</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384006</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.2738923356858</v>
       </c>
       <c r="G2" t="n">
-        <v>276.4746992243165</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S4" t="n">
-        <v>39.77472754219288</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>197.6384789148198</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.9994244361418</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.44497470121445</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.17696725861785</v>
+        <v>66.36248435538644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>58.1558530613933</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>72.64978773649511</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.574752399524016</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3918499711692</v>
+        <v>203.6630665685116</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.6938862346287</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>35.11263957635633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038592</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>102.6726556001211</v>
       </c>
       <c r="F34" t="n">
-        <v>102.672655600122</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.42852323204838</v>
+        <v>48.42852323204835</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1013876.715979218</v>
+        <v>1013876.715979217</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1200300.337982956</v>
+        <v>1200300.337982957</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1200300.337982957</v>
+        <v>1200300.337982956</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1200300.337982956</v>
+        <v>1200300.337982957</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1200300.337982956</v>
+        <v>1200300.337982957</v>
       </c>
     </row>
     <row r="11">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187174.6227640463</v>
+        <v>187174.6227640462</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26326,7 +26326,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
         <v>221965.3149147517</v>
@@ -26335,25 +26335,25 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="L2" t="n">
-        <v>224789.2189323857</v>
+        <v>224789.2189323856</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1324592.616629867</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390015596</v>
+        <v>3947.34439001539</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237808</v>
+        <v>216562.4822237807</v>
       </c>
       <c r="K3" t="n">
         <v>952.8885570183662</v>
       </c>
       <c r="L3" t="n">
-        <v>14357.37878245865</v>
+        <v>14357.37878245867</v>
       </c>
       <c r="M3" t="n">
         <v>90125.36714668496</v>
@@ -26418,10 +26418,10 @@
         <v>10558.76396175957</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26436,25 +26436,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="L4" t="n">
-        <v>16462.45469549467</v>
+        <v>16462.45469549469</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987469</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1255619.726081353</v>
+        <v>-1255970.743026341</v>
       </c>
       <c r="C6" t="n">
-        <v>24161.07870313656</v>
+        <v>24161.07870313675</v>
       </c>
       <c r="D6" t="n">
-        <v>28108.42309315213</v>
+        <v>28108.42309315212</v>
       </c>
       <c r="E6" t="n">
-        <v>-215126.7650032918</v>
+        <v>-215161.5029287279</v>
       </c>
       <c r="F6" t="n">
-        <v>110285.6968040634</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="G6" t="n">
-        <v>110285.6968040631</v>
+        <v>110250.9588786278</v>
       </c>
       <c r="H6" t="n">
-        <v>110285.6968040635</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="I6" t="n">
-        <v>110285.6968040633</v>
+        <v>110250.9588786277</v>
       </c>
       <c r="J6" t="n">
-        <v>-106276.7854197173</v>
+        <v>-106311.5233451529</v>
       </c>
       <c r="K6" t="n">
-        <v>109332.808247045</v>
+        <v>109298.0703216094</v>
       </c>
       <c r="L6" t="n">
-        <v>91338.09253444712</v>
+        <v>91329.02646371705</v>
       </c>
       <c r="M6" t="n">
-        <v>13949.05616220299</v>
+        <v>13949.05616220305</v>
       </c>
       <c r="N6" t="n">
+        <v>104074.4233088881</v>
+      </c>
+      <c r="O6" t="n">
+        <v>104074.4233088881</v>
+      </c>
+      <c r="P6" t="n">
         <v>104074.423308888</v>
-      </c>
-      <c r="O6" t="n">
-        <v>104074.423308888</v>
-      </c>
-      <c r="P6" t="n">
-        <v>104074.4233088879</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689928</v>
+        <v>827.6990193689926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="M2" t="n">
-        <v>6.337924013966404</v>
+        <v>6.33792401396634</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>1086.755407162286</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011827</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689928</v>
+        <v>827.6990193689926</v>
       </c>
       <c r="C4" t="n">
         <v>3.702436033300046</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689928</v>
+        <v>827.6990193689926</v>
       </c>
       <c r="K4" t="n">
         <v>3.702436033300046</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689928</v>
+        <v>827.6990193689926</v>
       </c>
       <c r="K4" t="n">
         <v>3.702436033300046</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>142.9418404164788</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>196.1234179510337</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>155.4545369062725</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>143.6218081736426</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7677005521845</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>113.0913093320077</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>166.3497438692351</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>76.69637781278465</v>
       </c>
     </row>
     <row r="11">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="C34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="D34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="E34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="F34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="G34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="H34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="I34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="J34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="K34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="L34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="M34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="N34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="O34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="P34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="R34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="S34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="T34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="U34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="V34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="W34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="X34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.94672347807331</v>
+        <v>17.94672347807334</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>237.3557891543622</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>266.6561007250664</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>94.75954470991782</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>128.8146617507074</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>98.99320674102667</v>
+        <v>98.9932067410267</v>
       </c>
       <c r="K34" t="n">
-        <v>282.2793118877082</v>
+        <v>282.2793118877083</v>
       </c>
       <c r="L34" t="n">
-        <v>412.2887377972047</v>
+        <v>412.2887377972048</v>
       </c>
       <c r="M34" t="n">
-        <v>444.2191504791184</v>
+        <v>444.2191504791185</v>
       </c>
       <c r="N34" t="n">
-        <v>439.5728564679807</v>
+        <v>439.5728564679808</v>
       </c>
       <c r="O34" t="n">
-        <v>391.2086231841187</v>
+        <v>391.2086231841188</v>
       </c>
       <c r="P34" t="n">
-        <v>313.5784967846982</v>
+        <v>313.5784967846983</v>
       </c>
       <c r="Q34" t="n">
         <v>138.3489807779717</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
